--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772083.1943570668</v>
+        <v>769647.5574333601</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64.43856447801353</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.59933623926791</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>54.86718477556016</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693916</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>237.284163704883</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>77.06300304438594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728603</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>75.4567522410769</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.9236587943919</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.6066283555075</v>
       </c>
       <c r="H10" t="n">
-        <v>68.28731103590617</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953549576</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>199.6718430456934</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>51.46635248167978</v>
+        <v>124.1004521009503</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1582,7 +1582,7 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672547</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>187.0762796884524</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>24.83266606353076</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.1115298725984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>7.54122690220053e-13</v>
+        <v>99.9742741983425</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671011808</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>184.8190037993178</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.5133406574302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189461</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016412</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.6584215897762</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819331</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.30373791808188</v>
+        <v>99.97427419834422</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784695</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833873</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>87.26519496153531</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892426</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>45.66054613217707</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833829</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796256</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>921.7704558796256</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,25 +4340,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,7 +4367,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>435.8535386027987</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.5020034330385</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756482</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.25144481607</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.25144481607</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.25144481607</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>721.2655400264628</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>306.1930898714592</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796415</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820604</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>753.0765981364616</v>
+        <v>651.9203821015085</v>
       </c>
       <c r="C7" t="n">
-        <v>753.0765981364616</v>
+        <v>482.9841991736016</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>332.8675597612659</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.507193008249</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.517642110231</v>
+        <v>651.9203821015085</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.7250629667013</v>
+        <v>651.9203821015085</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1014.373575514116</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="C10" t="n">
-        <v>845.4373925862091</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="D10" t="n">
-        <v>695.3207531738733</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="E10" t="n">
-        <v>547.4076595914802</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="F10" t="n">
-        <v>400.5177120935698</v>
+        <v>136.8218420438072</v>
       </c>
       <c r="G10" t="n">
-        <v>232.8148754682888</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y10" t="n">
-        <v>1196.022040344356</v>
+        <v>452.6479724696244</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2218.777615179243</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1849.815098238832</v>
+        <v>1166.296315748936</v>
       </c>
       <c r="D11" t="n">
-        <v>1491.549399632081</v>
+        <v>808.0306171421853</v>
       </c>
       <c r="E11" t="n">
-        <v>1105.761147033837</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>694.7752422442295</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
-        <v>280.1997965738765</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469182</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301224</v>
@@ -5051,40 +5051,40 @@
         <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234591</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750371</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.751200750371</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3721.751200750371</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>3368.982545480257</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.516787219177</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2605.377455243365</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469182</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469182</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520014</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895891</v>
+        <v>977.3905023848077</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.762069342398</v>
+        <v>203.8650582458538</v>
       </c>
       <c r="C13" t="n">
-        <v>520.7758547144387</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="D13" t="n">
-        <v>370.6592153021029</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="E13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457696</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888908</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
         <v>1095.90854877922</v>
@@ -5218,31 +5218,31 @@
         <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.294322457033</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1492.609834251146</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1203.192664214185</v>
+        <v>834.295653117641</v>
       </c>
       <c r="X13" t="n">
-        <v>975.2031133161679</v>
+        <v>606.3061022196237</v>
       </c>
       <c r="Y13" t="n">
-        <v>754.4105341726378</v>
+        <v>385.5135230760935</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364389</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="L15" t="n">
-        <v>570.9683475412853</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.7775391487164</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>390.8413562208095</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7247168084737</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.625304057464</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.208134020504</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>962.2185831224863</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.4260039789561</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,16 +5671,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400755</v>
       </c>
       <c r="C22" t="n">
-        <v>631.701244340891</v>
+        <v>344.9174178121687</v>
       </c>
       <c r="D22" t="n">
-        <v>631.701244340891</v>
+        <v>194.800778399833</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138454</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135326</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856257</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>550.63768707329</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1568.74569517875</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1279.32852514179</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1051.338974243772</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243772</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6218,49 +6218,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876727</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597658</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474302</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650371</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650371</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.32989935946</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614425</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>762.5477693179124</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,13 +6488,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>991.7436897307816</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.928827395873</v>
+        <v>513.8536007400774</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679661</v>
+        <v>344.9174178121705</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556305</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732375</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="F34" t="n">
-        <v>189.0729639753272</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261127</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,31 +6950,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876665</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597597</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597597</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773667</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>264.0500279773667</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038343</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258103</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602301</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396414</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614364</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179063</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277356</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>363.7369613277356</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>363.7369613277356</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7342,16 +7342,16 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188009</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>402.724593490894</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>402.724593490894</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E43" t="n">
-        <v>402.724593490894</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925707</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490406</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7634,37 +7634,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998283</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,22 +7819,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187122</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>89.89687363498383</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>115.780468616948</v>
+        <v>43.1463689976775</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729095</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613728959</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.0613636353762</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>65.06136363537559</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.7828069546816</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1352912260294659</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822667</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823013</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>67.31863952451022</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.31863952450713</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303742</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012467</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.58839950885161</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.70965538904</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.22040037418698</v>
+        <v>65.54986409392464</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823044</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>78.25894333073353</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>119.8635921600918</v>
+        <v>63.36835372228666</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916312.4558300761</v>
+        <v>916312.4558300757</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996701.4874868593</v>
+        <v>996701.4874868591</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713449</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372533</v>
@@ -26335,25 +26335,25 @@
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="K2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="K2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.712987108883681e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185157</v>
+        <v>143114.1392185148</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.3471051386</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.014118081206107e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115324</v>
+        <v>37377.3285511531</v>
       </c>
       <c r="N3" t="n">
         <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14117.63111954901</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621471</v>
+        <v>86093.72216214704</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1099035.543958444</v>
       </c>
       <c r="C6" t="n">
-        <v>229709.2017691493</v>
+        <v>229709.201769149</v>
       </c>
       <c r="D6" t="n">
-        <v>229709.2017691487</v>
+        <v>229709.2017691491</v>
       </c>
       <c r="E6" t="n">
-        <v>143628.9454711333</v>
+        <v>143418.9812272893</v>
       </c>
       <c r="F6" t="n">
-        <v>140533.1850353598</v>
+        <v>140487.2800397936</v>
       </c>
       <c r="G6" t="n">
-        <v>297245.4467009123</v>
+        <v>297210.7087754761</v>
       </c>
       <c r="H6" t="n">
-        <v>308412.6829364913</v>
+        <v>308377.9450110553</v>
       </c>
       <c r="I6" t="n">
-        <v>308412.6829364909</v>
+        <v>308377.9450110553</v>
       </c>
       <c r="J6" t="n">
-        <v>90881.48053921366</v>
+        <v>90846.74261377791</v>
       </c>
       <c r="K6" t="n">
-        <v>308412.6829364909</v>
+        <v>308377.9450110553</v>
       </c>
       <c r="L6" t="n">
-        <v>308412.6829364909</v>
+        <v>308377.9450110554</v>
       </c>
       <c r="M6" t="n">
-        <v>271035.3543853379</v>
+        <v>271000.6164599023</v>
       </c>
       <c r="N6" t="n">
-        <v>264630.2763780019</v>
+        <v>264595.5384525661</v>
       </c>
       <c r="O6" t="n">
-        <v>305389.3849592664</v>
+        <v>305354.6470338308</v>
       </c>
       <c r="P6" t="n">
-        <v>308412.682936491</v>
+        <v>308377.9450110552</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.388327808647</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>122.3935669012567</v>
+      </c>
+      <c r="F3" t="n">
+        <v>145.8707812218304</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.934451625288148</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>122.3935669012576</v>
-      </c>
-      <c r="F3" t="n">
-        <v>145.8707812218299</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.93445162528792</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="N4" t="n">
         <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>290.2444771426694</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.2767095024435</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3796363230677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161596</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>57.32360068243742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>71.55246997382642</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370884</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>289.8161395299306</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230211</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352073</v>
       </c>
       <c r="H10" t="n">
-        <v>76.46770387841461</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-5.273882457037848e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29329,13 +29329,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-4.705448268429768e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29478,10 +29478,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.153414089643711e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.612210365209421e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>219.8517740430776</v>
       </c>
       <c r="N12" t="n">
-        <v>656.2170074201563</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
-        <v>306.4674191928274</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>77.71774012105928</v>
       </c>
       <c r="N12" t="n">
-        <v>524.875295336823</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M15" t="n">
-        <v>164.3333852708091</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
